--- a/Homework/FluidsHW9.xlsx
+++ b/Homework/FluidsHW9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD7A27F-3762-4F1E-BCDD-FDA5D26F5206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B56860-27A0-4CD3-81BC-3D59D5DB80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
   <si>
     <t>density</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>ft2 lbm/s3</t>
+  </si>
+  <si>
+    <t>discharge coefficient</t>
   </si>
 </sst>
 </file>
@@ -412,16 +415,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333868</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57585</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>229093</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -444,7 +447,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505200" y="371475"/>
+          <a:off x="5229225" y="238125"/>
           <a:ext cx="3534268" cy="3115110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -951,15 +954,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77EC18A-D5F9-4521-A915-CDD339FD6996}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -970,7 +973,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -981,7 +984,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -992,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>0.12566370614359174</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>3.9999999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1067,24 +1070,37 @@
         <v>799999.99999999988</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <f>0.61</f>
+        <v>0.61</v>
+      </c>
+      <c r="E11">
+        <f>0.5959+0.0312*D6^2.1-0.184*D6^8+0.039*D6^4/(1-D6^4)-0.0158*D6^3+91.71*D6^2.5/D10^0.75</f>
+        <v>0.60368997932505053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
-        <f>D9^2/0.61^2*D1*(1-D6^4)/2</f>
+      <c r="D12">
+        <f>D9^2/D11^2*D1*(1-D6^4)/2</f>
         <v>20155.872077398541</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
-        <f>D11/9.81/D7</f>
+      <c r="D13">
+        <f>D12/9.81/D7</f>
         <v>0.15107537384870284</v>
       </c>
     </row>
@@ -1672,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3061BA97-92F2-4A7C-AF20-0C629BA4037E}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/Homework/FluidsHW9.xlsx
+++ b/Homework/FluidsHW9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B56860-27A0-4CD3-81BC-3D59D5DB80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{56B56860-27A0-4CD3-81BC-3D59D5DB80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF0FE1FE-B1D3-46DF-BFD0-92E97BFD9076}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="103">
   <si>
     <t>density</t>
   </si>
@@ -94,9 +94,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>little diamter</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
@@ -350,6 +347,9 @@
   </si>
   <si>
     <t>discharge coefficient</t>
+  </si>
+  <si>
+    <t>Impeller Diameter</t>
   </si>
 </sst>
 </file>
@@ -458,6 +458,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,12 +730,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +746,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -750,19 +754,19 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
         <f>D2*32.174*144/2.2046*3.2808</f>
-        <v>3447.3668975777919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344.73668975777917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -771,7 +775,7 @@
       </c>
       <c r="D4">
         <f>SQRT(2*D3/D1)</f>
-        <v>75.799811978414482</v>
+        <v>23.970005206430361</v>
       </c>
     </row>
   </sheetData>
@@ -784,12 +788,12 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -797,7 +801,7 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -809,7 +813,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -820,7 +824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -831,7 +835,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -840,7 +844,7 @@
         <v>3.5E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -851,18 +855,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7">
-        <f>D6/12</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D6*2.54*10^-2</f>
+        <v>0.10160000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -871,27 +875,27 @@
         <v>2.6669999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9">
-        <f>D8/12</f>
-        <v>0.22224999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D8*2.54*10^-2</f>
+        <v>6.7741799999999991E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <f>D9/D7</f>
-        <v>0.66674999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.66674999999999984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -900,17 +904,17 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>0.995</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -920,31 +924,31 @@
         <v>2.1888951204046307</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
       <c r="D14">
         <f>D13*PI()*D9^2/4</f>
-        <v>8.4917729523411173E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.8891152226226481E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <f>D14*60*264.17</f>
-        <v>1345.9629964919718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125.04405410161351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <f>D14*4*D2/PI()/D7/D5</f>
-        <v>729350.75208040338</v>
+        <v>222306.10923410693</v>
       </c>
     </row>
   </sheetData>
@@ -956,15 +960,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77EC18A-D5F9-4521-A915-CDD339FD6996}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -973,9 +977,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -984,9 +988,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -995,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1006,9 +1010,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1017,18 +1021,18 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <f>D5/D4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1037,21 +1041,21 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <f>D3*PI()*D4^2/4</f>
         <v>0.12566370614359174</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1061,18 +1065,18 @@
         <v>3.9999999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <f>D1*D9*D5/D2</f>
         <v>799999.99999999988</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <f>0.61</f>
@@ -1083,25 +1087,25 @@
         <v>0.60368997932505053</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <f>D9^2/D11^2*D1*(1-D6^4)/2</f>
         <v>20155.872077398541</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <f>D12/9.81/D7</f>
-        <v>0.15107537384870284</v>
+        <f>-D12/9.81/(D1-D7)</f>
+        <v>0.16306548288431416</v>
       </c>
     </row>
   </sheetData>
@@ -1112,23 +1116,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604FBF52-1D34-4AF6-9963-E82F28ACCD8F}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1148,9 +1152,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1159,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -1168,38 +1172,38 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
       <c r="D6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <f>D6/264.17/60</f>
-        <v>3.1545343276425532E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.3154534327642553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -1208,9 +1212,9 @@
         <v>16093.635698610095</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1219,9 +1223,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -1230,7 +1234,7 @@
         <v>16.876000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -1239,9 +1243,9 @@
         <v>0.42865561245224743</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1250,189 +1254,210 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <f>D13/D11</f>
         <v>1.0666034605356719E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
       </c>
       <c r="D16">
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <f>D16*2*PI()/60</f>
         <v>125.66370614359172</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>48</v>
       </c>
       <c r="D20">
         <f>4*D3*D7/PI()/D12/D5</f>
-        <v>93699.41124068416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>936994.1124068416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <f>(2.457*LN(1/((7/D20)^0.9+0.27*D14)))^16</f>
-        <v>1.1105435549587045E+21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.3692062157209432E+22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <f>(37530/D20)^16</f>
-        <v>4.3880062595335001E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3880062595335048E-23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <f>2*((8/D20)^12+1/(D21+D22)^(3/2))^(1/12)</f>
-        <v>4.6809935872102861E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4195691304573657E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24">
         <f>4*D23*D9/D12</f>
-        <v>702.98116540802016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>513.54325694661929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <f>D24*0.1</f>
-        <v>70.298116540802013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51.354325694661931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <f>D24+D25</f>
-        <v>773.27928194882213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>564.89758264128125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <f>8*D7^2/PI()^2*D26/D12^4</f>
-        <v>18.474090811288026</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1349.5731082425139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28">
         <f>D27/9.81</f>
-        <v>1.8831896851465877</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137.57116291972616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <f>D28*3.2808</f>
-        <v>6.1783687190289251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451.34347130703759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <f>9.81*D28*D3*D7/D15</f>
-        <v>832.53076623134211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>608182.0996591812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <f>D30/745.7</f>
-        <v>1.1164419555201046</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>815.58548968644379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
       </c>
       <c r="D34">
         <f>D30/D17</f>
-        <v>6.6250693360900641</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4839.7593730383205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <f>D34*0.7376</f>
-        <v>4.8866511423000318</v>
+        <v>3569.8065135530655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <f>SQRT(4*D34/D3/D7/D17)</f>
+        <v>0.69882642628041647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <f>D37*3.2808*12</f>
+        <v>27.512516872089485</v>
       </c>
     </row>
   </sheetData>
@@ -1442,34 +1467,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90836638-057D-45C9-8002-01500AFB5642}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
       </c>
       <c r="D2">
         <v>9.81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1489,9 +1514,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1500,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -1509,29 +1534,29 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <f>D7/264.17/60</f>
         <v>1.8927205965855319E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1540,9 +1565,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1551,7 +1576,7 @@
         <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -1560,9 +1585,9 @@
         <v>2.6644924002275864E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1571,27 +1596,27 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <f>D12/D10</f>
         <v>1.7159199237368923E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -1600,83 +1625,89 @@
         <v>2.4384296513045598</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
       </c>
       <c r="D16">
         <v>18.7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <f>D16/1000*9.81*13600</f>
         <v>2494.8791999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>101325</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <f>4*D4*D8/PI()/D11/D6</f>
         <v>90444.49556326709</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <f>(2.457*LN(1/((7/D19)^0.9+0.27*D13)))^16</f>
         <v>1.1962254384568646E+20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <f>(37530/D19)^16</f>
         <v>7.7257878104352259E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <f>2*((8/D19)^12+1/(D20+D21)^(3/2))^(1/12)</f>
         <v>6.1844825213394367E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23">
-        <f>((D18-D17)/D2/D4-D15+8*D8^2/PI()^2/D11^4/D2)/(1+8*D8^2*D22/D2/PI()^2/D11^5)</f>
-        <v>7.2368193825595473</v>
+        <f>((D18-D17)/D2/D4-D15-8*D8^2/PI()^2/D11^4/D2)/(1+32*D8^2*D22/D2/PI()^2/D11^5)</f>
+        <v>4.5615846447604804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f>D23*3.2808</f>
+        <v>14.965646902530185</v>
       </c>
     </row>
   </sheetData>
@@ -1688,44 +1719,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3061BA97-92F2-4A7C-AF20-0C629BA4037E}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>88</v>
       </c>
-      <c r="M1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>32.6</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>25</v>
@@ -1740,7 +1771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1749,7 +1780,7 @@
         <v>0.86227909811090797</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -1764,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1807,7 @@
         <v>862.27909811090797</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -1791,16 +1822,16 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <f>D4*2.2046/3.2808^3</f>
         <v>53.831736942139685</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1815,9 +1846,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1826,88 +1857,88 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <f>D6*6.72*10^-4</f>
         <v>1.3440000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8">
         <f>4*D10*D5/PI()/D7/D14</f>
         <v>8888.3930627530026</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9">
-        <f>(2.457*LN(1/((7/I8)^0.9+0.27*D15)))^16</f>
-        <v>7.7417255954536489E+18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <f>(2.457*LN(1/((7/I8)^0.9+0.27*D16)))^16</f>
+        <v>1.1961127181341544E+19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <f>D9/60/7.4805</f>
         <v>0.44560301227636301</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10">
         <f>(37530/I8)^16</f>
         <v>10206691840.191917</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11">
         <f>2*((8/I8)^12+1/(I9+I10)^(3/2))^(1/12)</f>
-        <v>8.7081374245396546E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.2472371423500095E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1916,16 +1947,16 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12">
         <f>4*I11*D11/D14</f>
-        <v>27.248409151101921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25.806217916088688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1934,32 +1965,32 @@
         <v>3.0680000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13">
         <f>K2/$I$8+L2*(1+M2/$D$12^0.3)</f>
         <v>0.63276995278159676</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <f>D13/12</f>
         <v>0.25566666666666665</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:I16" si="0">K3/$I$8+L3*(1+M3/$D$12^0.3)</f>
         <v>1.4306496825714063</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1968,90 +1999,94 @@
         <v>1.8E-3</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
         <v>10.864198652007463</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <f>D15/D13</f>
         <v>5.8670143415906126E-4</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>6.2704047446225566</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17">
         <f>I12+I13*J2+I14*J3+I15*J4+I16*J5</f>
-        <v>98.46157234857543</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+        <v>97.019381113562204</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18">
+        <f>8*D10^2*I17/PI()^2/D14^4-32.174*D8</f>
+        <v>3976.4131336248747</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="H18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18">
-        <f>8*D10^2*I17/PI()^2/D14^4</f>
-        <v>3708.9997794935243</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19">
         <f>I18/32.174</f>
-        <v>115.27941131017357</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+        <v>123.59088498865154</v>
+      </c>
+      <c r="J19">
+        <f>I19/3.2808</f>
+        <v>37.670959823412439</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20">
-        <f>32.174*132*D5*D10/0.455</f>
-        <v>223900.00489936603</v>
-      </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+        <f>32.174*137*D5*D10/0.68</f>
+        <v>155490.27189618963</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I21">
         <f>I20/32.174</f>
-        <v>6959.0353981278686</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+        <v>4832.7926865229574</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22">
         <f>I21/0.7376*1.341*10^-3</f>
-        <v>12.651933932876181</v>
+        <v>8.7863001526942597</v>
       </c>
     </row>
   </sheetData>

--- a/Homework/FluidsHW9.xlsx
+++ b/Homework/FluidsHW9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B56860-27A0-4CD3-81BC-3D59D5DB80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542B49D0-7EFA-4BB3-B0CD-E8D424AB74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,7 +957,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D23"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Homework/FluidsHW9.xlsx
+++ b/Homework/FluidsHW9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542B49D0-7EFA-4BB3-B0CD-E8D424AB74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3286BC-281A-4440-90C2-C8F2FC599BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
   <si>
     <t>density</t>
   </si>
@@ -94,9 +94,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>little diamter</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
@@ -350,6 +347,12 @@
   </si>
   <si>
     <t>discharge coefficient</t>
+  </si>
+  <si>
+    <t>Impeller Diameter</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +762,7 @@
       </c>
       <c r="D3">
         <f>D2*32.174*144/2.2046*3.2808</f>
-        <v>3447.3668975777919</v>
+        <v>344.73668975777917</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +774,7 @@
       </c>
       <c r="D4">
         <f>SQRT(2*D3/D1)</f>
-        <v>75.799811978414482</v>
+        <v>23.970005206430361</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +787,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,13 +859,13 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <f>D6/12</f>
-        <v>0.33333333333333331</v>
+        <f>D6*2.54*10^-2</f>
+        <v>0.10160000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -876,22 +879,22 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <f>D8/12</f>
-        <v>0.22224999999999998</v>
+        <f>D8*2.54*10^-2</f>
+        <v>6.7741799999999991E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <f>D9/D7</f>
-        <v>0.66674999999999995</v>
+        <v>0.66674999999999984</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -902,7 +905,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>0.995</v>
@@ -910,7 +913,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -922,29 +925,29 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
       <c r="D14">
         <f>D13*PI()*D9^2/4</f>
-        <v>8.4917729523411173E-2</v>
+        <v>7.8891152226226481E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <f>D14*60*264.17</f>
-        <v>1345.9629964919718</v>
+        <v>125.04405410161351</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <f>D14*4*D2/PI()/D7/D5</f>
-        <v>729350.75208040338</v>
+        <v>222306.10923410693</v>
       </c>
     </row>
   </sheetData>
@@ -954,17 +957,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77EC18A-D5F9-4521-A915-CDD339FD6996}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -975,7 +978,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -986,7 +989,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1008,7 +1011,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <f>D5/D4</f>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1039,10 +1042,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <f>D3*PI()*D4^2/4</f>
@@ -1051,7 +1054,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <f>D1*D9*D5/D2</f>
@@ -1072,7 +1075,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <f>0.61</f>
@@ -1085,10 +1088,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <f>D9^2/D11^2*D1*(1-D6^4)/2</f>
@@ -1097,11 +1100,23 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
       <c r="D13">
-        <f>D12/9.81/D7</f>
-        <v>0.15107537384870284</v>
+        <f>-D12/9.81/(D1-D7)</f>
+        <v>0.16306548288431416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <f>D13*1000</f>
+        <v>163.06548288431415</v>
       </c>
     </row>
   </sheetData>
@@ -1112,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604FBF52-1D34-4AF6-9963-E82F28ACCD8F}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1165,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1170,30 +1185,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
       <c r="D6">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <f>D6/264.17/60</f>
-        <v>3.1545343276425532E-2</v>
+        <v>0.3154534327642553</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1210,7 +1225,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1221,7 +1236,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -1241,7 +1256,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1252,7 +1267,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <f>D13/D11</f>
@@ -1261,7 +1276,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>0.7</v>
@@ -1269,10 +1284,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
       </c>
       <c r="D16">
         <v>1200</v>
@@ -1280,7 +1295,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <f>D16*2*PI()/60</f>
@@ -1289,150 +1304,171 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <f>4*D3*D7/PI()/D12/D5</f>
-        <v>93699.41124068416</v>
+        <v>936994.1124068416</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <f>(2.457*LN(1/((7/D20)^0.9+0.27*D14)))^16</f>
-        <v>1.1105435549587045E+21</v>
+        <v>1.3692062157209432E+22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <f>(37530/D20)^16</f>
-        <v>4.3880062595335001E-7</v>
+        <v>4.3880062595335048E-23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <f>2*((8/D20)^12+1/(D21+D22)^(3/2))^(1/12)</f>
-        <v>4.6809935872102861E-3</v>
+        <v>3.4195691304573657E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24">
         <f>4*D23*D9/D12</f>
-        <v>702.98116540802016</v>
+        <v>513.54325694661929</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <f>D24*0.1</f>
-        <v>70.298116540802013</v>
+        <v>51.354325694661931</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <f>D24+D25</f>
-        <v>773.27928194882213</v>
+        <v>564.89758264128125</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <f>8*D7^2/PI()^2*D26/D12^4</f>
-        <v>18.474090811288026</v>
+        <v>1349.5731082425139</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28">
         <f>D27/9.81</f>
-        <v>1.8831896851465877</v>
+        <v>137.57116291972616</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <f>D28*3.2808</f>
-        <v>6.1783687190289251</v>
+        <v>451.34347130703759</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <f>9.81*D28*D3*D7/D15</f>
-        <v>832.53076623134211</v>
+        <v>608182.0996591812</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <f>D30/745.7</f>
-        <v>1.1164419555201046</v>
+        <v>815.58548968644379</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
       </c>
       <c r="D34">
         <f>D30/D17</f>
-        <v>6.6250693360900641</v>
+        <v>4839.7593730383205</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <f>D34*0.7376</f>
-        <v>4.8866511423000318</v>
+        <v>3569.8065135530655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <f>SQRT(4*D34/D3/D7/D17)</f>
+        <v>0.69882642628041647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <f>D37*3.2808*12</f>
+        <v>27.512516872089485</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90836638-057D-45C9-8002-01500AFB5642}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,15 +1491,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
       </c>
       <c r="D2">
         <v>9.81</v>
@@ -1491,7 +1527,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1511,10 +1547,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1522,7 +1558,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <f>D7/264.17/60</f>
@@ -1531,7 +1567,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1542,7 +1578,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1562,7 +1598,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1573,7 +1609,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <f>D12/D10</f>
@@ -1582,10 +1618,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1602,10 +1638,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
       </c>
       <c r="D16">
         <v>18.7</v>
@@ -1613,7 +1649,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <f>D16/1000*9.81*13600</f>
@@ -1622,10 +1658,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>101325</v>
@@ -1633,7 +1669,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <f>4*D4*D8/PI()/D11/D6</f>
@@ -1642,7 +1678,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <f>(2.457*LN(1/((7/D19)^0.9+0.27*D13)))^16</f>
@@ -1651,7 +1687,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <f>(37530/D19)^16</f>
@@ -1660,7 +1696,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <f>2*((8/D19)^12+1/(D20+D21)^(3/2))^(1/12)</f>
@@ -1669,14 +1705,20 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23">
-        <f>((D18-D17)/D2/D4-D15+8*D8^2/PI()^2/D11^4/D2)/(1+8*D8^2*D22/D2/PI()^2/D11^5)</f>
-        <v>7.2368193825595473</v>
+        <f>((D18-D17)/D2/D4-D15-8*D8^2/PI()^2/D11^4/D2)/(1+32*D8^2*D22/D2/PI()^2/D11^5)</f>
+        <v>4.5615846447604804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>D23*3.2808</f>
+        <v>14.965646902530185</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1731,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,33 +1741,33 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>88</v>
-      </c>
-      <c r="M1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>32.6</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>25</v>
@@ -1749,7 +1791,7 @@
         <v>0.86227909811090797</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -1776,7 +1818,7 @@
         <v>862.27909811090797</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -1793,14 +1835,14 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <f>D4*2.2046/3.2808^3</f>
         <v>53.831736942139685</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1817,7 +1859,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1828,7 +1870,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <f>D6*6.72*10^-4</f>
@@ -1837,16 +1879,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8">
         <f>4*D10*D5/PI()/D7/D14</f>
@@ -1855,32 +1897,32 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9">
-        <f>(2.457*LN(1/((7/I8)^0.9+0.27*D15)))^16</f>
-        <v>7.7417255954536489E+18</v>
+        <f>(2.457*LN(1/((7/I8)^0.9+0.27*D16)))^16</f>
+        <v>1.1961127181341544E+19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <f>D9/60/7.4805</f>
         <v>0.44560301227636301</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10">
         <f>(37530/I8)^16</f>
@@ -1889,25 +1931,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11">
         <f>2*((8/I8)^12+1/(I9+I10)^(3/2))^(1/12)</f>
-        <v>8.7081374245396546E-3</v>
+        <v>8.2472371423500095E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1916,16 +1958,16 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12">
         <f>4*I11*D11/D14</f>
-        <v>27.248409151101921</v>
+        <v>25.806217916088688</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1934,7 +1976,7 @@
         <v>3.0680000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13">
         <f>K2/$I$8+L2*(1+M2/$D$12^0.3)</f>
@@ -1943,14 +1985,14 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <f>D13/12</f>
         <v>0.25566666666666665</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:I16" si="0">K3/$I$8+L3*(1+M3/$D$12^0.3)</f>
@@ -1959,7 +2001,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1968,7 +2010,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -1977,81 +2019,85 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <f>D15/D13</f>
         <v>5.8670143415906126E-4</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>6.2704047446225566</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17">
         <f>I12+I13*J2+I14*J3+I15*J4+I16*J5</f>
-        <v>98.46157234857543</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+        <v>97.019381113562204</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18">
+        <f>8*D10^2*I17/PI()^2/D14^4-32.174*D8</f>
+        <v>3976.4131336248747</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="H18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18">
-        <f>8*D10^2*I17/PI()^2/D14^4</f>
-        <v>3708.9997794935243</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19">
         <f>I18/32.174</f>
-        <v>115.27941131017357</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+        <v>123.59088498865154</v>
+      </c>
+      <c r="J19">
+        <f>I19/3.2808</f>
+        <v>37.670959823412439</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20">
-        <f>32.174*132*D5*D10/0.455</f>
-        <v>223900.00489936603</v>
-      </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+        <f>32.174*137*D5*D10/0.68</f>
+        <v>155490.27189618963</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I21">
         <f>I20/32.174</f>
-        <v>6959.0353981278686</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+        <v>4832.7926865229574</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22">
         <f>I21/0.7376*1.341*10^-3</f>
-        <v>12.651933932876181</v>
+        <v>8.7863001526942597</v>
       </c>
     </row>
   </sheetData>
